--- a/va_facility_data_2025-02-20/Mobile VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mobile%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mobile VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mobile%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R34e16c0d975d4504a23a8e265cdcb604"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd6ef8983bf274bc893a49486bec5d35d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc66ea71a7f8e421a80e1f9425507b72b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R850be0c75ae0454a94d338ee8f02bbad"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7004901cb43f4d9fbe1582d56bdbae00"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re6dd5436fbf54b939a8b8ae36fad1061"/>
   </x:sheets>
 </x:workbook>
 </file>
